--- a/CIC_comparacao.xlsx
+++ b/CIC_comparacao.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus\Desktop\Unb\TG\Codigos\Boxplots\BoxPlots_CIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus\Desktop\Unb\TG\GitHub\Enade_TG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="614">
   <si>
     <t>NOTA_FG</t>
   </si>
@@ -1822,6 +1822,45 @@
   </si>
   <si>
     <t>tp_def_aud_"Interprete de Sinal - Libras"</t>
+  </si>
+  <si>
+    <t>co_catad_"Pessoa Juridica de Direito Publico - Estadual"</t>
+  </si>
+  <si>
+    <t>co_catad_"Pessoa Juridica de Direito Privado - Sem fins lucrativos - Fundacao"</t>
+  </si>
+  <si>
+    <t>co_catad_"Privada com fins lucrativos"</t>
+  </si>
+  <si>
+    <t>co_catad_"Pessoa Juridica de Direito Publico - Federal"</t>
+  </si>
+  <si>
+    <t>co_catad_"Pessoa Juridica de Direito Privado - Com fins lucrativos - Sociedade Civil"</t>
+  </si>
+  <si>
+    <t>co_catad_"Privada sem fins lucrativos"</t>
+  </si>
+  <si>
+    <t>co_catad_"Pessoa Juridica de Direito Privado - Com fins lucrativos - Sociedade Mercantil ou Comercial"</t>
+  </si>
+  <si>
+    <t>co_catad_"Pessoa Juridica de Direito Privado - Sem fins lucrativos - Associacao de Utilidade Publica"</t>
+  </si>
+  <si>
+    <t>co_catad_"Pessoa Juridica de Direito Publico - Municipal"</t>
+  </si>
+  <si>
+    <t>co_orgac_"Faculdade"</t>
+  </si>
+  <si>
+    <t>co_orgac_"Instituto Federal de Educacao; Ciencia e Tecnologia"</t>
+  </si>
+  <si>
+    <t>co_orgac_"Centro Universitario"</t>
+  </si>
+  <si>
+    <t>co_orgac_"Universidade"</t>
   </si>
 </sst>
 </file>
@@ -2391,8 +2430,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A8:F587" totalsRowShown="0">
-  <autoFilter ref="A8:F587"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A8:F600" totalsRowShown="0">
+  <autoFilter ref="A8:F600"/>
   <sortState ref="A9:F587">
     <sortCondition ref="A8:A587"/>
   </sortState>
@@ -2409,8 +2448,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="K8:P587" totalsRowShown="0">
-  <autoFilter ref="K8:P587"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="K8:P600" totalsRowShown="0">
+  <autoFilter ref="K8:P600"/>
   <sortState ref="K9:P587">
     <sortCondition ref="K8:K587"/>
   </sortState>
@@ -2427,8 +2466,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="U8:Z587" totalsRowShown="0">
-  <autoFilter ref="U8:Z587"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="U8:Z600" totalsRowShown="0">
+  <autoFilter ref="U8:Z600"/>
   <sortState ref="U9:Z587">
     <sortCondition ref="U8:U587"/>
   </sortState>
@@ -2707,10 +2746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z587"/>
+  <dimension ref="A1:Z600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+      <selection activeCell="U588" sqref="U588:Z600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -35280,6 +35319,734 @@
         <v>1E-4</v>
       </c>
     </row>
+    <row r="588" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A588" t="s">
+        <v>601</v>
+      </c>
+      <c r="B588">
+        <v>47</v>
+      </c>
+      <c r="C588">
+        <v>61.7</v>
+      </c>
+      <c r="D588">
+        <v>73.8</v>
+      </c>
+      <c r="E588">
+        <v>881</v>
+      </c>
+      <c r="F588" s="1">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="K588" t="s">
+        <v>601</v>
+      </c>
+      <c r="L588">
+        <v>31.3</v>
+      </c>
+      <c r="M588">
+        <v>40.5</v>
+      </c>
+      <c r="N588">
+        <v>50.5</v>
+      </c>
+      <c r="O588">
+        <v>881</v>
+      </c>
+      <c r="P588" s="1">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="U588" t="s">
+        <v>601</v>
+      </c>
+      <c r="V588">
+        <v>36.6</v>
+      </c>
+      <c r="W588">
+        <v>46</v>
+      </c>
+      <c r="X588">
+        <v>54.5</v>
+      </c>
+      <c r="Y588">
+        <v>881</v>
+      </c>
+      <c r="Z588" s="1">
+        <v>8.9700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A589" t="s">
+        <v>602</v>
+      </c>
+      <c r="B589">
+        <v>50.75</v>
+      </c>
+      <c r="C589">
+        <v>61.75</v>
+      </c>
+      <c r="D589">
+        <v>73.125</v>
+      </c>
+      <c r="E589">
+        <v>516</v>
+      </c>
+      <c r="F589" s="1">
+        <v>5.2540000000000003E-2</v>
+      </c>
+      <c r="K589" t="s">
+        <v>602</v>
+      </c>
+      <c r="L589">
+        <v>29.3</v>
+      </c>
+      <c r="M589">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="N589">
+        <v>48.5</v>
+      </c>
+      <c r="O589">
+        <v>516</v>
+      </c>
+      <c r="P589" s="1">
+        <v>5.2540000000000003E-2</v>
+      </c>
+      <c r="U589" t="s">
+        <v>602</v>
+      </c>
+      <c r="V589">
+        <v>36.475000000000001</v>
+      </c>
+      <c r="W589">
+        <v>44.75</v>
+      </c>
+      <c r="X589">
+        <v>53.45</v>
+      </c>
+      <c r="Y589">
+        <v>516</v>
+      </c>
+      <c r="Z589" s="1">
+        <v>5.2540000000000003E-2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A590" t="s">
+        <v>603</v>
+      </c>
+      <c r="B590">
+        <v>46.1</v>
+      </c>
+      <c r="C590">
+        <v>59.4</v>
+      </c>
+      <c r="D590">
+        <v>70.3</v>
+      </c>
+      <c r="E590">
+        <v>1569</v>
+      </c>
+      <c r="F590" s="1">
+        <v>0.15973999999999999</v>
+      </c>
+      <c r="K590" t="s">
+        <v>603</v>
+      </c>
+      <c r="L590">
+        <v>24.3</v>
+      </c>
+      <c r="M590">
+        <v>32.4</v>
+      </c>
+      <c r="N590">
+        <v>40.4</v>
+      </c>
+      <c r="O590">
+        <v>1569</v>
+      </c>
+      <c r="P590" s="1">
+        <v>0.15973999999999999</v>
+      </c>
+      <c r="U590" t="s">
+        <v>603</v>
+      </c>
+      <c r="V590">
+        <v>31.1</v>
+      </c>
+      <c r="W590">
+        <v>38</v>
+      </c>
+      <c r="X590">
+        <v>45.8</v>
+      </c>
+      <c r="Y590">
+        <v>1569</v>
+      </c>
+      <c r="Z590" s="1">
+        <v>0.15973999999999999</v>
+      </c>
+    </row>
+    <row r="591" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A591" t="s">
+        <v>604</v>
+      </c>
+      <c r="B591">
+        <v>53.7</v>
+      </c>
+      <c r="C591">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="D591">
+        <v>77</v>
+      </c>
+      <c r="E591">
+        <v>2095</v>
+      </c>
+      <c r="F591" s="1">
+        <v>0.21329999999999999</v>
+      </c>
+      <c r="K591" t="s">
+        <v>604</v>
+      </c>
+      <c r="L591">
+        <v>40.5</v>
+      </c>
+      <c r="M591">
+        <v>50.5</v>
+      </c>
+      <c r="N591">
+        <v>61.1</v>
+      </c>
+      <c r="O591">
+        <v>2095</v>
+      </c>
+      <c r="P591" s="1">
+        <v>0.21329999999999999</v>
+      </c>
+      <c r="U591" t="s">
+        <v>604</v>
+      </c>
+      <c r="V591">
+        <v>45.6</v>
+      </c>
+      <c r="W591">
+        <v>54.5</v>
+      </c>
+      <c r="X591">
+        <v>63.3</v>
+      </c>
+      <c r="Y591">
+        <v>2095</v>
+      </c>
+      <c r="Z591" s="1">
+        <v>0.21329999999999999</v>
+      </c>
+    </row>
+    <row r="592" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A592" t="s">
+        <v>605</v>
+      </c>
+      <c r="B592">
+        <v>51.5</v>
+      </c>
+      <c r="C592">
+        <v>66</v>
+      </c>
+      <c r="D592">
+        <v>78.8</v>
+      </c>
+      <c r="E592">
+        <v>57</v>
+      </c>
+      <c r="F592" s="1">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="K592" t="s">
+        <v>605</v>
+      </c>
+      <c r="L592">
+        <v>28.3</v>
+      </c>
+      <c r="M592">
+        <v>34.4</v>
+      </c>
+      <c r="N592">
+        <v>45</v>
+      </c>
+      <c r="O592">
+        <v>57</v>
+      </c>
+      <c r="P592" s="1">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="U592" t="s">
+        <v>605</v>
+      </c>
+      <c r="V592">
+        <v>34.1</v>
+      </c>
+      <c r="W592">
+        <v>44.4</v>
+      </c>
+      <c r="X592">
+        <v>51</v>
+      </c>
+      <c r="Y592">
+        <v>57</v>
+      </c>
+      <c r="Z592" s="1">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A593" t="s">
+        <v>606</v>
+      </c>
+      <c r="B593">
+        <v>46</v>
+      </c>
+      <c r="C593">
+        <v>59.55</v>
+      </c>
+      <c r="D593">
+        <v>71.075000000000003</v>
+      </c>
+      <c r="E593">
+        <v>2790</v>
+      </c>
+      <c r="F593" s="1">
+        <v>0.28405999999999998</v>
+      </c>
+      <c r="K593" t="s">
+        <v>606</v>
+      </c>
+      <c r="L593">
+        <v>25.8</v>
+      </c>
+      <c r="M593">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="N593">
+        <v>42.5</v>
+      </c>
+      <c r="O593">
+        <v>2790</v>
+      </c>
+      <c r="P593" s="1">
+        <v>0.28405999999999998</v>
+      </c>
+      <c r="U593" t="s">
+        <v>606</v>
+      </c>
+      <c r="V593">
+        <v>32.725000000000001</v>
+      </c>
+      <c r="W593">
+        <v>40</v>
+      </c>
+      <c r="X593">
+        <v>48.3</v>
+      </c>
+      <c r="Y593">
+        <v>2790</v>
+      </c>
+      <c r="Z593" s="1">
+        <v>0.28405999999999998</v>
+      </c>
+    </row>
+    <row r="594" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A594" t="s">
+        <v>607</v>
+      </c>
+      <c r="B594">
+        <v>51.6</v>
+      </c>
+      <c r="C594">
+        <v>63.75</v>
+      </c>
+      <c r="D594">
+        <v>76.424999999999997</v>
+      </c>
+      <c r="E594">
+        <v>112</v>
+      </c>
+      <c r="F594" s="1">
+        <v>1.14E-2</v>
+      </c>
+      <c r="K594" t="s">
+        <v>607</v>
+      </c>
+      <c r="L594">
+        <v>32.4</v>
+      </c>
+      <c r="M594">
+        <v>39.75</v>
+      </c>
+      <c r="N594">
+        <v>46.5</v>
+      </c>
+      <c r="O594">
+        <v>112</v>
+      </c>
+      <c r="P594" s="1">
+        <v>1.14E-2</v>
+      </c>
+      <c r="U594" t="s">
+        <v>607</v>
+      </c>
+      <c r="V594">
+        <v>38.75</v>
+      </c>
+      <c r="W594">
+        <v>46.35</v>
+      </c>
+      <c r="X594">
+        <v>51.625</v>
+      </c>
+      <c r="Y594">
+        <v>112</v>
+      </c>
+      <c r="Z594" s="1">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A595" t="s">
+        <v>608</v>
+      </c>
+      <c r="B595">
+        <v>46.424999999999997</v>
+      </c>
+      <c r="C595">
+        <v>60.25</v>
+      </c>
+      <c r="D595">
+        <v>71.125</v>
+      </c>
+      <c r="E595">
+        <v>60</v>
+      </c>
+      <c r="F595" s="1">
+        <v>6.11E-3</v>
+      </c>
+      <c r="K595" t="s">
+        <v>608</v>
+      </c>
+      <c r="L595">
+        <v>27.8</v>
+      </c>
+      <c r="M595">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="N595">
+        <v>40.725000000000001</v>
+      </c>
+      <c r="O595">
+        <v>60</v>
+      </c>
+      <c r="P595" s="1">
+        <v>6.11E-3</v>
+      </c>
+      <c r="U595" t="s">
+        <v>608</v>
+      </c>
+      <c r="V595">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="W595">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="X595">
+        <v>47.1</v>
+      </c>
+      <c r="Y595">
+        <v>60</v>
+      </c>
+      <c r="Z595" s="1">
+        <v>6.11E-3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A596" t="s">
+        <v>609</v>
+      </c>
+      <c r="B596">
+        <v>42.674999999999997</v>
+      </c>
+      <c r="C596">
+        <v>57.2</v>
+      </c>
+      <c r="D596">
+        <v>67.25</v>
+      </c>
+      <c r="E596">
+        <v>196</v>
+      </c>
+      <c r="F596" s="1">
+        <v>1.9959999999999999E-2</v>
+      </c>
+      <c r="K596" t="s">
+        <v>609</v>
+      </c>
+      <c r="L596">
+        <v>24.3</v>
+      </c>
+      <c r="M596">
+        <v>32.4</v>
+      </c>
+      <c r="N596">
+        <v>40.5</v>
+      </c>
+      <c r="O596">
+        <v>196</v>
+      </c>
+      <c r="P596" s="1">
+        <v>1.9959999999999999E-2</v>
+      </c>
+      <c r="U596" t="s">
+        <v>609</v>
+      </c>
+      <c r="V596">
+        <v>29.574999999999999</v>
+      </c>
+      <c r="W596">
+        <v>37.75</v>
+      </c>
+      <c r="X596">
+        <v>46.6</v>
+      </c>
+      <c r="Y596">
+        <v>196</v>
+      </c>
+      <c r="Z596" s="1">
+        <v>1.9959999999999999E-2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A597" t="s">
+        <v>610</v>
+      </c>
+      <c r="B597">
+        <v>45.1</v>
+      </c>
+      <c r="C597">
+        <v>58.6</v>
+      </c>
+      <c r="D597">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="E597">
+        <v>1409</v>
+      </c>
+      <c r="F597" s="1">
+        <v>0.14344999999999999</v>
+      </c>
+      <c r="K597" t="s">
+        <v>610</v>
+      </c>
+      <c r="L597">
+        <v>24.3</v>
+      </c>
+      <c r="M597">
+        <v>30.8</v>
+      </c>
+      <c r="N597">
+        <v>39</v>
+      </c>
+      <c r="O597">
+        <v>1409</v>
+      </c>
+      <c r="P597" s="1">
+        <v>0.14344999999999999</v>
+      </c>
+      <c r="U597" t="s">
+        <v>610</v>
+      </c>
+      <c r="V597">
+        <v>30.6</v>
+      </c>
+      <c r="W597">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="X597">
+        <v>45.1</v>
+      </c>
+      <c r="Y597">
+        <v>1409</v>
+      </c>
+      <c r="Z597" s="1">
+        <v>0.14344999999999999</v>
+      </c>
+    </row>
+    <row r="598" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A598" t="s">
+        <v>611</v>
+      </c>
+      <c r="B598">
+        <v>58.4</v>
+      </c>
+      <c r="C598">
+        <v>68.3</v>
+      </c>
+      <c r="D598">
+        <v>77.75</v>
+      </c>
+      <c r="E598">
+        <v>67</v>
+      </c>
+      <c r="F598" s="1">
+        <v>6.8199999999999997E-3</v>
+      </c>
+      <c r="K598" t="s">
+        <v>611</v>
+      </c>
+      <c r="L598">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="M598">
+        <v>44.5</v>
+      </c>
+      <c r="N598">
+        <v>52.5</v>
+      </c>
+      <c r="O598">
+        <v>67</v>
+      </c>
+      <c r="P598" s="1">
+        <v>6.8199999999999997E-3</v>
+      </c>
+      <c r="U598" t="s">
+        <v>611</v>
+      </c>
+      <c r="V598">
+        <v>42.95</v>
+      </c>
+      <c r="W598">
+        <v>48.7</v>
+      </c>
+      <c r="X598">
+        <v>57.85</v>
+      </c>
+      <c r="Y598">
+        <v>67</v>
+      </c>
+      <c r="Z598" s="1">
+        <v>6.8199999999999997E-3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A599" t="s">
+        <v>612</v>
+      </c>
+      <c r="B599">
+        <v>45</v>
+      </c>
+      <c r="C599">
+        <v>58.95</v>
+      </c>
+      <c r="D599">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="E599">
+        <v>1150</v>
+      </c>
+      <c r="F599" s="1">
+        <v>0.11708</v>
+      </c>
+      <c r="K599" t="s">
+        <v>612</v>
+      </c>
+      <c r="L599">
+        <v>24.3</v>
+      </c>
+      <c r="M599">
+        <v>32.4</v>
+      </c>
+      <c r="N599">
+        <v>41.5</v>
+      </c>
+      <c r="O599">
+        <v>1150</v>
+      </c>
+      <c r="P599" s="1">
+        <v>0.11708</v>
+      </c>
+      <c r="U599" t="s">
+        <v>612</v>
+      </c>
+      <c r="V599">
+        <v>31.6</v>
+      </c>
+      <c r="W599">
+        <v>38.75</v>
+      </c>
+      <c r="X599">
+        <v>47.2</v>
+      </c>
+      <c r="Y599">
+        <v>1150</v>
+      </c>
+      <c r="Z599" s="1">
+        <v>0.11708</v>
+      </c>
+    </row>
+    <row r="600" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A600" t="s">
+        <v>613</v>
+      </c>
+      <c r="B600">
+        <v>50.024999999999999</v>
+      </c>
+      <c r="C600">
+        <v>63</v>
+      </c>
+      <c r="D600">
+        <v>74.5</v>
+      </c>
+      <c r="E600">
+        <v>5650</v>
+      </c>
+      <c r="F600" s="1">
+        <v>0.57523999999999997</v>
+      </c>
+      <c r="K600" t="s">
+        <v>613</v>
+      </c>
+      <c r="L600">
+        <v>31.3</v>
+      </c>
+      <c r="M600">
+        <v>41.5</v>
+      </c>
+      <c r="N600">
+        <v>52.6</v>
+      </c>
+      <c r="O600">
+        <v>5650</v>
+      </c>
+      <c r="P600" s="1">
+        <v>0.57523999999999997</v>
+      </c>
+      <c r="U600" t="s">
+        <v>613</v>
+      </c>
+      <c r="V600">
+        <v>37.1</v>
+      </c>
+      <c r="W600">
+        <v>46.9</v>
+      </c>
+      <c r="X600">
+        <v>56.475000000000001</v>
+      </c>
+      <c r="Y600">
+        <v>5650</v>
+      </c>
+      <c r="Z600" s="1">
+        <v>0.57523999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
